--- a/xlsx/政策_政策_混合動力車輛_intext.xlsx
+++ b/xlsx/政策_政策_混合動力車輛_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
   <si>
     <t>混合動力車輛</t>
   </si>
@@ -1578,276 +1578,6 @@
   </si>
   <si>
     <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B1%D8%A9_%D9%87%D8%AC%D9%8A%D9%86%D8%A9</t>
-  </si>
-  <si>
-    <t>سيارة هجينة – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://azb.wikipedia.org/wiki/%D9%87%DB%8C%D8%A8%D8%B1%DB%8C%D8%AF_%D8%A2%D8%B1%D8%A7%D8%AC%DB%8C</t>
-  </si>
-  <si>
-    <t>هیبرید آراجی – South Azerbaijani</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%A5%D0%B8%D0%B1%D1%80%D0%B8%D0%B4%D0%B5%D0%BD_%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB</t>
-  </si>
-  <si>
-    <t>Хибриден автомобил – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Vehicle_h%C3%ADbrid</t>
-  </si>
-  <si>
-    <t>Vehicle híbrid – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Hybridn%C3%AD_pohon</t>
-  </si>
-  <si>
-    <t>Hybridní pohon – 捷克语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Hybridbil</t>
-  </si>
-  <si>
-    <t>Hybridbil – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hybrid_vehicle</t>
-  </si>
-  <si>
-    <t>Hybrid vehicle – 英语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Veh%C3%ADculo_h%C3%ADbrido</t>
-  </si>
-  <si>
-    <t>Vehículo híbrido – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/H%C3%BCbriidauto</t>
-  </si>
-  <si>
-    <t>Hübriidauto – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%AE%D9%88%D8%AF%D8%B1%D9%88_%D9%87%DB%8C%D8%A8%D8%B1%DB%8C%D8%AF%DB%8C</t>
-  </si>
-  <si>
-    <t>خودرو هیبریدی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Hybridiauto</t>
-  </si>
-  <si>
-    <t>Hybridiauto – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_hybride</t>
-  </si>
-  <si>
-    <t>Véhicule hybride – 法语</t>
-  </si>
-  <si>
-    <t>https://ga.wikipedia.org/wiki/Feithicil_hibrideach</t>
-  </si>
-  <si>
-    <t>Feithicil hibrideach – 爱尔兰语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%94%D7%A0%D7%A2%D7%94_%D7%94%D7%99%D7%91%D7%A8%D7%99%D7%93%D7%99%D7%AA</t>
-  </si>
-  <si>
-    <t>הנעה היברידית – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B9%E0%A4%BE%E0%A4%87%E0%A4%AC%E0%A5%8D%E0%A4%B0%E0%A4%BF%E0%A4%A1_%E0%A4%B5%E0%A4%BE%E0%A4%B9%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>हाइब्रिड वाहन – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Hibridni_automobil</t>
-  </si>
-  <si>
-    <t>Hibridni automobil – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hu.wikipedia.org/wiki/Hibridaut%C3%B3</t>
-  </si>
-  <si>
-    <t>Hibridautó – 匈牙利语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Kendaraan_hibrida</t>
-  </si>
-  <si>
-    <t>Kendaraan hibrida – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://is.wikipedia.org/wiki/Tvinnb%C3%ADll</t>
-  </si>
-  <si>
-    <t>Tvinnbíll – 冰岛语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Veicolo_ibrido</t>
-  </si>
-  <si>
-    <t>Veicolo ibrido – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E3%83%8F%E3%82%A4%E3%83%96%E3%83%AA%E3%83%83%E3%83%89%E3%82%AB%E3%83%BC</t>
-  </si>
-  <si>
-    <t>ハイブリッドカー – 日语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%B9%E0%B3%88%E0%B2%AC%E0%B3%8D%E0%B2%B0%E0%B2%BF%E0%B2%A1%E0%B3%8D%E2%80%8C_%E0%B2%B5%E0%B2%BE%E0%B2%B9%E0%B2%A8</t>
-  </si>
-  <si>
-    <t>ಹೈಬ್ರಿಡ್‌ ವಾಹನ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%ED%95%98%EC%9D%B4%EB%B8%8C%EB%A6%AC%EB%93%9C_%EC%B0%A8%EB%9F%89</t>
-  </si>
-  <si>
-    <t>하이브리드 차량 – 韩语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Hibridinis_automobilis</t>
-  </si>
-  <si>
-    <t>Hibridinis automobilis – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://lv.wikipedia.org/wiki/Hibr%C4%ABdauto</t>
-  </si>
-  <si>
-    <t>Hibrīdauto – 拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Kereta_hibrid</t>
-  </si>
-  <si>
-    <t>Kereta hibrid – 马来语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Hybride_voertuig</t>
-  </si>
-  <si>
-    <t>Hybride voertuig – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Hybridbil</t>
-  </si>
-  <si>
-    <t>Hybridbil – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Hybridbil</t>
-  </si>
-  <si>
-    <t>Hybridbil – 挪威语</t>
-  </si>
-  <si>
-    <t>https://oc.wikipedia.org/wiki/Automobila_ibrida</t>
-  </si>
-  <si>
-    <t>Automobila ibrida – 奥克语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Nap%C4%99d_hybrydowy</t>
-  </si>
-  <si>
-    <t>Napęd hybrydowy – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Autom%C3%B3vel_h%C3%ADbrido</t>
-  </si>
-  <si>
-    <t>Automóvel híbrido – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Vehicul_hibrid</t>
-  </si>
-  <si>
-    <t>Vehicul hibrid – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%93%D0%B8%D0%B1%D1%80%D0%B8%D0%B4%D0%BD%D1%8B%D0%B9_%D0%B0%D0%B2%D1%82%D0%BE%D0%BC%D0%BE%D0%B1%D0%B8%D0%BB%D1%8C</t>
-  </si>
-  <si>
-    <t>Гибридный автомобиль – 俄语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Hibridni_automobil</t>
-  </si>
-  <si>
-    <t>Hibridni automobil – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://si.wikipedia.org/wiki/%E0%B6%AF%E0%B7%99%E0%B6%B8%E0%B7%94%E0%B7%84%E0%B7%94%E0%B6%B8%E0%B7%8A_%E0%B7%80%E0%B7%8F%E0%B7%84%E0%B6%B1</t>
-  </si>
-  <si>
-    <t>දෙමුහුම් වාහන – 僧伽罗语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Hibridno_vozilo</t>
-  </si>
-  <si>
-    <t>Hibridno vozilo – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/Hibridni_pogon</t>
-  </si>
-  <si>
-    <t>Hibridni pogon – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Hybridbil</t>
-  </si>
-  <si>
-    <t>Hybridbil – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%95%E0%AE%B2%E0%AE%AA%E0%AF%8D%E0%AE%AA%E0%AF%81_%E0%AE%B5%E0%AE%BE%E0%AE%95%E0%AE%A9%E0%AE%AE%E0%AF%8D</t>
-  </si>
-  <si>
-    <t>கலப்பு வாகனம் – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://th.wikipedia.org/wiki/%E0%B8%A2%E0%B8%B2%E0%B8%99%E0%B8%9E%E0%B8%B2%E0%B8%AB%E0%B8%99%E0%B8%B0%E0%B9%84%E0%B8%AE%E0%B8%9A%E0%B8%A3%E0%B8%B4%E0%B8%94</t>
-  </si>
-  <si>
-    <t>ยานพาหนะไฮบริด – 泰语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/Hibrit_(otomobil)</t>
-  </si>
-  <si>
-    <t>Hibrit (otomobil) – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%93%D1%96%D0%B1%D1%80%D0%B8%D0%B4%D0%BD%D0%B5_%D0%B0%D0%B2%D1%82%D0%BE</t>
-  </si>
-  <si>
-    <t>Гібридне авто – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D9%85%D8%AE%D9%84%D9%88%D8%B7_%D8%A8%D8%B1%D9%82%DB%8C_%D9%86%D8%A7%D9%82%D9%84</t>
-  </si>
-  <si>
-    <t>مخلوط برقی ناقل – 乌尔都语</t>
-  </si>
-  <si>
-    <t>https://yi.wikipedia.org/wiki/%D7%94%D7%99%D7%99%D7%91%D7%A8%D7%99%D7%93_%D7%90%D7%95%D7%99%D7%98%D7%90</t>
-  </si>
-  <si>
-    <t>הייבריד אויטא – 意第绪语</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +1926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10118,1311 +9848,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="s">
-        <v>0</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1</v>
-      </c>
-      <c r="D274" t="n">
-        <v>273</v>
-      </c>
-      <c r="E274" t="s">
-        <v>521</v>
-      </c>
-      <c r="F274" t="s">
-        <v>522</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
-      </c>
-      <c r="H274" t="s">
-        <v>4</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="s">
-        <v>0</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1</v>
-      </c>
-      <c r="D275" t="n">
-        <v>274</v>
-      </c>
-      <c r="E275" t="s">
-        <v>523</v>
-      </c>
-      <c r="F275" t="s">
-        <v>524</v>
-      </c>
-      <c r="G275" t="n">
-        <v>1</v>
-      </c>
-      <c r="H275" t="s">
-        <v>4</v>
-      </c>
-      <c r="I275" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1</v>
-      </c>
-      <c r="D276" t="n">
-        <v>275</v>
-      </c>
-      <c r="E276" t="s">
-        <v>525</v>
-      </c>
-      <c r="F276" t="s">
-        <v>526</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1</v>
-      </c>
-      <c r="H276" t="s">
-        <v>4</v>
-      </c>
-      <c r="I276" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" t="n">
-        <v>276</v>
-      </c>
-      <c r="E277" t="s">
-        <v>527</v>
-      </c>
-      <c r="F277" t="s">
-        <v>528</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1</v>
-      </c>
-      <c r="H277" t="s">
-        <v>4</v>
-      </c>
-      <c r="I277" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>0</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1</v>
-      </c>
-      <c r="D278" t="n">
-        <v>277</v>
-      </c>
-      <c r="E278" t="s">
-        <v>529</v>
-      </c>
-      <c r="F278" t="s">
-        <v>530</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1</v>
-      </c>
-      <c r="H278" t="s">
-        <v>4</v>
-      </c>
-      <c r="I278" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>0</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1</v>
-      </c>
-      <c r="D279" t="n">
-        <v>278</v>
-      </c>
-      <c r="E279" t="s">
-        <v>531</v>
-      </c>
-      <c r="F279" t="s">
-        <v>532</v>
-      </c>
-      <c r="G279" t="n">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
-        <v>4</v>
-      </c>
-      <c r="I279" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>0</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>279</v>
-      </c>
-      <c r="E280" t="s">
-        <v>533</v>
-      </c>
-      <c r="F280" t="s">
-        <v>534</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>4</v>
-      </c>
-      <c r="I280" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1</v>
-      </c>
-      <c r="D281" t="n">
-        <v>280</v>
-      </c>
-      <c r="E281" t="s">
-        <v>535</v>
-      </c>
-      <c r="F281" t="s">
-        <v>536</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1</v>
-      </c>
-      <c r="H281" t="s">
-        <v>4</v>
-      </c>
-      <c r="I281" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1</v>
-      </c>
-      <c r="D282" t="n">
-        <v>281</v>
-      </c>
-      <c r="E282" t="s">
-        <v>537</v>
-      </c>
-      <c r="F282" t="s">
-        <v>538</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1</v>
-      </c>
-      <c r="H282" t="s">
-        <v>4</v>
-      </c>
-      <c r="I282" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>282</v>
-      </c>
-      <c r="E283" t="s">
-        <v>539</v>
-      </c>
-      <c r="F283" t="s">
-        <v>540</v>
-      </c>
-      <c r="G283" t="n">
-        <v>1</v>
-      </c>
-      <c r="H283" t="s">
-        <v>4</v>
-      </c>
-      <c r="I283" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>0</v>
-      </c>
-      <c r="C284" t="s">
-        <v>1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>283</v>
-      </c>
-      <c r="E284" t="s">
-        <v>541</v>
-      </c>
-      <c r="F284" t="s">
-        <v>542</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1</v>
-      </c>
-      <c r="H284" t="s">
-        <v>4</v>
-      </c>
-      <c r="I284" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>284</v>
-      </c>
-      <c r="E285" t="s">
-        <v>543</v>
-      </c>
-      <c r="F285" t="s">
-        <v>544</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1</v>
-      </c>
-      <c r="H285" t="s">
-        <v>4</v>
-      </c>
-      <c r="I285" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>0</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1</v>
-      </c>
-      <c r="D286" t="n">
-        <v>285</v>
-      </c>
-      <c r="E286" t="s">
-        <v>545</v>
-      </c>
-      <c r="F286" t="s">
-        <v>546</v>
-      </c>
-      <c r="G286" t="n">
-        <v>1</v>
-      </c>
-      <c r="H286" t="s">
-        <v>4</v>
-      </c>
-      <c r="I286" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1</v>
-      </c>
-      <c r="D287" t="n">
-        <v>286</v>
-      </c>
-      <c r="E287" t="s">
-        <v>547</v>
-      </c>
-      <c r="F287" t="s">
-        <v>548</v>
-      </c>
-      <c r="G287" t="n">
-        <v>1</v>
-      </c>
-      <c r="H287" t="s">
-        <v>4</v>
-      </c>
-      <c r="I287" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1</v>
-      </c>
-      <c r="D288" t="n">
-        <v>287</v>
-      </c>
-      <c r="E288" t="s">
-        <v>549</v>
-      </c>
-      <c r="F288" t="s">
-        <v>550</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1</v>
-      </c>
-      <c r="H288" t="s">
-        <v>4</v>
-      </c>
-      <c r="I288" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1</v>
-      </c>
-      <c r="D289" t="n">
-        <v>288</v>
-      </c>
-      <c r="E289" t="s">
-        <v>551</v>
-      </c>
-      <c r="F289" t="s">
-        <v>552</v>
-      </c>
-      <c r="G289" t="n">
-        <v>1</v>
-      </c>
-      <c r="H289" t="s">
-        <v>4</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>0</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1</v>
-      </c>
-      <c r="D290" t="n">
-        <v>289</v>
-      </c>
-      <c r="E290" t="s">
-        <v>553</v>
-      </c>
-      <c r="F290" t="s">
-        <v>554</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1</v>
-      </c>
-      <c r="H290" t="s">
-        <v>4</v>
-      </c>
-      <c r="I290" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>290</v>
-      </c>
-      <c r="E291" t="s">
-        <v>555</v>
-      </c>
-      <c r="F291" t="s">
-        <v>556</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1</v>
-      </c>
-      <c r="H291" t="s">
-        <v>4</v>
-      </c>
-      <c r="I291" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>291</v>
-      </c>
-      <c r="E292" t="s">
-        <v>557</v>
-      </c>
-      <c r="F292" t="s">
-        <v>558</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1</v>
-      </c>
-      <c r="H292" t="s">
-        <v>4</v>
-      </c>
-      <c r="I292" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>0</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1</v>
-      </c>
-      <c r="D293" t="n">
-        <v>292</v>
-      </c>
-      <c r="E293" t="s">
-        <v>559</v>
-      </c>
-      <c r="F293" t="s">
-        <v>560</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1</v>
-      </c>
-      <c r="H293" t="s">
-        <v>4</v>
-      </c>
-      <c r="I293" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1</v>
-      </c>
-      <c r="D294" t="n">
-        <v>293</v>
-      </c>
-      <c r="E294" t="s">
-        <v>561</v>
-      </c>
-      <c r="F294" t="s">
-        <v>562</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1</v>
-      </c>
-      <c r="H294" t="s">
-        <v>4</v>
-      </c>
-      <c r="I294" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>0</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1</v>
-      </c>
-      <c r="D295" t="n">
-        <v>294</v>
-      </c>
-      <c r="E295" t="s">
-        <v>563</v>
-      </c>
-      <c r="F295" t="s">
-        <v>564</v>
-      </c>
-      <c r="G295" t="n">
-        <v>1</v>
-      </c>
-      <c r="H295" t="s">
-        <v>4</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1</v>
-      </c>
-      <c r="D296" t="n">
-        <v>295</v>
-      </c>
-      <c r="E296" t="s">
-        <v>565</v>
-      </c>
-      <c r="F296" t="s">
-        <v>566</v>
-      </c>
-      <c r="G296" t="n">
-        <v>1</v>
-      </c>
-      <c r="H296" t="s">
-        <v>4</v>
-      </c>
-      <c r="I296" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>296</v>
-      </c>
-      <c r="E297" t="s">
-        <v>567</v>
-      </c>
-      <c r="F297" t="s">
-        <v>568</v>
-      </c>
-      <c r="G297" t="n">
-        <v>1</v>
-      </c>
-      <c r="H297" t="s">
-        <v>4</v>
-      </c>
-      <c r="I297" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1</v>
-      </c>
-      <c r="D298" t="n">
-        <v>297</v>
-      </c>
-      <c r="E298" t="s">
-        <v>569</v>
-      </c>
-      <c r="F298" t="s">
-        <v>570</v>
-      </c>
-      <c r="G298" t="n">
-        <v>1</v>
-      </c>
-      <c r="H298" t="s">
-        <v>4</v>
-      </c>
-      <c r="I298" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>0</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>298</v>
-      </c>
-      <c r="E299" t="s">
-        <v>571</v>
-      </c>
-      <c r="F299" t="s">
-        <v>572</v>
-      </c>
-      <c r="G299" t="n">
-        <v>1</v>
-      </c>
-      <c r="H299" t="s">
-        <v>4</v>
-      </c>
-      <c r="I299" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>299</v>
-      </c>
-      <c r="E300" t="s">
-        <v>573</v>
-      </c>
-      <c r="F300" t="s">
-        <v>574</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1</v>
-      </c>
-      <c r="H300" t="s">
-        <v>4</v>
-      </c>
-      <c r="I300" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1</v>
-      </c>
-      <c r="D301" t="n">
-        <v>300</v>
-      </c>
-      <c r="E301" t="s">
-        <v>575</v>
-      </c>
-      <c r="F301" t="s">
-        <v>576</v>
-      </c>
-      <c r="G301" t="n">
-        <v>1</v>
-      </c>
-      <c r="H301" t="s">
-        <v>4</v>
-      </c>
-      <c r="I301" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="s">
-        <v>0</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>301</v>
-      </c>
-      <c r="E302" t="s">
-        <v>577</v>
-      </c>
-      <c r="F302" t="s">
-        <v>578</v>
-      </c>
-      <c r="G302" t="n">
-        <v>2</v>
-      </c>
-      <c r="H302" t="s">
-        <v>4</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>302</v>
-      </c>
-      <c r="E303" t="s">
-        <v>579</v>
-      </c>
-      <c r="F303" t="s">
-        <v>580</v>
-      </c>
-      <c r="G303" t="n">
-        <v>1</v>
-      </c>
-      <c r="H303" t="s">
-        <v>4</v>
-      </c>
-      <c r="I303" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>303</v>
-      </c>
-      <c r="E304" t="s">
-        <v>581</v>
-      </c>
-      <c r="F304" t="s">
-        <v>582</v>
-      </c>
-      <c r="G304" t="n">
-        <v>1</v>
-      </c>
-      <c r="H304" t="s">
-        <v>4</v>
-      </c>
-      <c r="I304" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="s">
-        <v>583</v>
-      </c>
-      <c r="F305" t="s">
-        <v>584</v>
-      </c>
-      <c r="G305" t="n">
-        <v>1</v>
-      </c>
-      <c r="H305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I305" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>0</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>305</v>
-      </c>
-      <c r="E306" t="s">
-        <v>585</v>
-      </c>
-      <c r="F306" t="s">
-        <v>586</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1</v>
-      </c>
-      <c r="H306" t="s">
-        <v>4</v>
-      </c>
-      <c r="I306" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>306</v>
-      </c>
-      <c r="E307" t="s">
-        <v>587</v>
-      </c>
-      <c r="F307" t="s">
-        <v>588</v>
-      </c>
-      <c r="G307" t="n">
-        <v>1</v>
-      </c>
-      <c r="H307" t="s">
-        <v>4</v>
-      </c>
-      <c r="I307" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>0</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>307</v>
-      </c>
-      <c r="E308" t="s">
-        <v>589</v>
-      </c>
-      <c r="F308" t="s">
-        <v>590</v>
-      </c>
-      <c r="G308" t="n">
-        <v>1</v>
-      </c>
-      <c r="H308" t="s">
-        <v>4</v>
-      </c>
-      <c r="I308" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1</v>
-      </c>
-      <c r="D309" t="n">
-        <v>308</v>
-      </c>
-      <c r="E309" t="s">
-        <v>591</v>
-      </c>
-      <c r="F309" t="s">
-        <v>592</v>
-      </c>
-      <c r="G309" t="n">
-        <v>1</v>
-      </c>
-      <c r="H309" t="s">
-        <v>4</v>
-      </c>
-      <c r="I309" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>0</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>309</v>
-      </c>
-      <c r="E310" t="s">
-        <v>593</v>
-      </c>
-      <c r="F310" t="s">
-        <v>594</v>
-      </c>
-      <c r="G310" t="n">
-        <v>1</v>
-      </c>
-      <c r="H310" t="s">
-        <v>4</v>
-      </c>
-      <c r="I310" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1</v>
-      </c>
-      <c r="D311" t="n">
-        <v>310</v>
-      </c>
-      <c r="E311" t="s">
-        <v>595</v>
-      </c>
-      <c r="F311" t="s">
-        <v>596</v>
-      </c>
-      <c r="G311" t="n">
-        <v>1</v>
-      </c>
-      <c r="H311" t="s">
-        <v>4</v>
-      </c>
-      <c r="I311" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>0</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>311</v>
-      </c>
-      <c r="E312" t="s">
-        <v>597</v>
-      </c>
-      <c r="F312" t="s">
-        <v>598</v>
-      </c>
-      <c r="G312" t="n">
-        <v>1</v>
-      </c>
-      <c r="H312" t="s">
-        <v>4</v>
-      </c>
-      <c r="I312" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>0</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1</v>
-      </c>
-      <c r="D313" t="n">
-        <v>312</v>
-      </c>
-      <c r="E313" t="s">
-        <v>599</v>
-      </c>
-      <c r="F313" t="s">
-        <v>600</v>
-      </c>
-      <c r="G313" t="n">
-        <v>1</v>
-      </c>
-      <c r="H313" t="s">
-        <v>4</v>
-      </c>
-      <c r="I313" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>0</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>313</v>
-      </c>
-      <c r="E314" t="s">
-        <v>601</v>
-      </c>
-      <c r="F314" t="s">
-        <v>602</v>
-      </c>
-      <c r="G314" t="n">
-        <v>1</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="s">
-        <v>0</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>314</v>
-      </c>
-      <c r="E315" t="s">
-        <v>603</v>
-      </c>
-      <c r="F315" t="s">
-        <v>604</v>
-      </c>
-      <c r="G315" t="n">
-        <v>1</v>
-      </c>
-      <c r="H315" t="s">
-        <v>4</v>
-      </c>
-      <c r="I315" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>315</v>
-      </c>
-      <c r="E316" t="s">
-        <v>605</v>
-      </c>
-      <c r="F316" t="s">
-        <v>606</v>
-      </c>
-      <c r="G316" t="n">
-        <v>1</v>
-      </c>
-      <c r="H316" t="s">
-        <v>4</v>
-      </c>
-      <c r="I316" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>316</v>
-      </c>
-      <c r="E317" t="s">
-        <v>607</v>
-      </c>
-      <c r="F317" t="s">
-        <v>608</v>
-      </c>
-      <c r="G317" t="n">
-        <v>1</v>
-      </c>
-      <c r="H317" t="s">
-        <v>4</v>
-      </c>
-      <c r="I317" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="s">
-        <v>0</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>317</v>
-      </c>
-      <c r="E318" t="s">
-        <v>609</v>
-      </c>
-      <c r="F318" t="s">
-        <v>610</v>
-      </c>
-      <c r="G318" t="n">
-        <v>1</v>
-      </c>
-      <c r="H318" t="s">
-        <v>4</v>
-      </c>
-      <c r="I318" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
